--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H2">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I2">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J2">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7376096666666667</v>
+        <v>1.480335666666667</v>
       </c>
       <c r="N2">
-        <v>2.212829</v>
+        <v>4.441007</v>
       </c>
       <c r="O2">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="P2">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="Q2">
-        <v>16.68075346867733</v>
+        <v>11.91804330078067</v>
       </c>
       <c r="R2">
-        <v>150.126781218096</v>
+        <v>107.262389707026</v>
       </c>
       <c r="S2">
-        <v>0.03702327964760136</v>
+        <v>0.03449553809820465</v>
       </c>
       <c r="T2">
-        <v>0.03702327964760135</v>
+        <v>0.03449553809820464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H3">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I3">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J3">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.887478</v>
       </c>
       <c r="O3">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="P3">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="Q3">
-        <v>14.22819169287467</v>
+        <v>5.065302651689333</v>
       </c>
       <c r="R3">
-        <v>128.053725235872</v>
+        <v>45.587723865204</v>
       </c>
       <c r="S3">
-        <v>0.0315797677193743</v>
+        <v>0.01466099226110724</v>
       </c>
       <c r="T3">
-        <v>0.03157976771937429</v>
+        <v>0.01466099226110724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H4">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I4">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J4">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.827342666666667</v>
+        <v>5.953764333333333</v>
       </c>
       <c r="N4">
-        <v>17.482028</v>
+        <v>17.861293</v>
       </c>
       <c r="O4">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="P4">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="Q4">
-        <v>131.7830700883413</v>
+        <v>47.93319699381933</v>
       </c>
       <c r="R4">
-        <v>1186.047630795072</v>
+        <v>431.398772944374</v>
       </c>
       <c r="S4">
-        <v>0.2924952680262221</v>
+        <v>0.1387376586356869</v>
       </c>
       <c r="T4">
-        <v>0.2924952680262221</v>
+        <v>0.1387376586356869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.614608</v>
+        <v>8.050905999999999</v>
       </c>
       <c r="H5">
-        <v>67.843824</v>
+        <v>24.152718</v>
       </c>
       <c r="I5">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="J5">
-        <v>0.3650188533124966</v>
+        <v>0.1888708516018927</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07810833333333334</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N5">
-        <v>0.234325</v>
+        <v>0.125737</v>
       </c>
       <c r="O5">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="P5">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="Q5">
-        <v>1.766389339866667</v>
+        <v>0.3374322559073333</v>
       </c>
       <c r="R5">
-        <v>15.8975040588</v>
+        <v>3.036890303166</v>
       </c>
       <c r="S5">
-        <v>0.003920537919298865</v>
+        <v>0.0009766626068938773</v>
       </c>
       <c r="T5">
-        <v>0.003920537919298864</v>
+        <v>0.0009766626068938773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>37.145801</v>
       </c>
       <c r="I6">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J6">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7376096666666667</v>
+        <v>1.480335666666667</v>
       </c>
       <c r="N6">
-        <v>2.212829</v>
+        <v>4.441007</v>
       </c>
       <c r="O6">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="P6">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="Q6">
-        <v>9.133033964558779</v>
+        <v>18.32941802906744</v>
       </c>
       <c r="R6">
-        <v>82.19730568102901</v>
+        <v>164.964762261607</v>
       </c>
       <c r="S6">
-        <v>0.02027095905085112</v>
+        <v>0.05305259613364542</v>
       </c>
       <c r="T6">
-        <v>0.02027095905085112</v>
+        <v>0.05305259613364541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>37.145801</v>
       </c>
       <c r="I7">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J7">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.887478</v>
       </c>
       <c r="O7">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="P7">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="Q7">
         <v>7.790209131097555</v>
@@ -883,10 +883,10 @@
         <v>70.11188217987799</v>
       </c>
       <c r="S7">
-        <v>0.01729053137290878</v>
+        <v>0.02254795095912724</v>
       </c>
       <c r="T7">
-        <v>0.01729053137290878</v>
+        <v>0.02254795095912724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>37.145801</v>
       </c>
       <c r="I8">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J8">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.827342666666667</v>
+        <v>5.953764333333333</v>
       </c>
       <c r="N8">
-        <v>17.482028</v>
+        <v>17.861293</v>
       </c>
       <c r="O8">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="P8">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="Q8">
-        <v>72.15377035160311</v>
+        <v>73.71911504229922</v>
       </c>
       <c r="R8">
-        <v>649.383933164428</v>
+        <v>663.472035380693</v>
       </c>
       <c r="S8">
-        <v>0.1601467956691785</v>
+        <v>0.2133723193756975</v>
       </c>
       <c r="T8">
-        <v>0.1601467956691785</v>
+        <v>0.2133723193756975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>37.145801</v>
       </c>
       <c r="I9">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="J9">
-        <v>0.1998548561530699</v>
+        <v>0.2904749299149038</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07810833333333334</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N9">
-        <v>0.234325</v>
+        <v>0.125737</v>
       </c>
       <c r="O9">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="P9">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="Q9">
-        <v>0.9671322021472223</v>
+        <v>0.5189557311485555</v>
       </c>
       <c r="R9">
-        <v>8.704189819325</v>
+        <v>4.670601580336999</v>
       </c>
       <c r="S9">
-        <v>0.002146570060131482</v>
+        <v>0.001502063446433697</v>
       </c>
       <c r="T9">
-        <v>0.002146570060131482</v>
+        <v>0.001502063446433697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H10">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I10">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J10">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7376096666666667</v>
+        <v>1.480335666666667</v>
       </c>
       <c r="N10">
-        <v>2.212829</v>
+        <v>4.441007</v>
       </c>
       <c r="O10">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="P10">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="Q10">
-        <v>5.263074368273001</v>
+        <v>12.18341419373</v>
       </c>
       <c r="R10">
-        <v>47.367669314457</v>
+        <v>109.65072774357</v>
       </c>
       <c r="S10">
-        <v>0.01168150314724032</v>
+        <v>0.03526362657689718</v>
       </c>
       <c r="T10">
-        <v>0.01168150314724032</v>
+        <v>0.03526362657689718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H11">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I11">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J11">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.887478</v>
       </c>
       <c r="O11">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="P11">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="Q11">
-        <v>4.489247511886</v>
+        <v>5.17808827042</v>
       </c>
       <c r="R11">
-        <v>40.403227606974</v>
+        <v>46.60279443378001</v>
       </c>
       <c r="S11">
-        <v>0.00996397832699538</v>
+        <v>0.01498743851655913</v>
       </c>
       <c r="T11">
-        <v>0.00996397832699538</v>
+        <v>0.01498743851655913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H12">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I12">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J12">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.827342666666667</v>
+        <v>5.953764333333333</v>
       </c>
       <c r="N12">
-        <v>17.482028</v>
+        <v>17.861293</v>
       </c>
       <c r="O12">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="P12">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="Q12">
-        <v>41.579902230236</v>
+        <v>49.00049260327</v>
       </c>
       <c r="R12">
-        <v>374.219120072124</v>
+        <v>441.00443342943</v>
       </c>
       <c r="S12">
-        <v>0.09228745876981156</v>
+        <v>0.1418268348895977</v>
       </c>
       <c r="T12">
-        <v>0.09228745876981156</v>
+        <v>0.1418268348895977</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.135311000000001</v>
+        <v>8.230170000000001</v>
       </c>
       <c r="H13">
-        <v>21.405933</v>
+        <v>24.69051</v>
       </c>
       <c r="I13">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="J13">
-        <v>0.115169939680053</v>
+        <v>0.1930763092661061</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.07810833333333334</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N13">
-        <v>0.234325</v>
+        <v>0.125737</v>
       </c>
       <c r="O13">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="P13">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="Q13">
-        <v>0.5573272500250001</v>
+        <v>0.34494562843</v>
       </c>
       <c r="R13">
-        <v>5.015945250225</v>
+        <v>3.10451065587</v>
       </c>
       <c r="S13">
-        <v>0.001236999436005714</v>
+        <v>0.0009984092830520915</v>
       </c>
       <c r="T13">
-        <v>0.001236999436005714</v>
+        <v>0.0009984092830520915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H14">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I14">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J14">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7376096666666667</v>
+        <v>1.480335666666667</v>
       </c>
       <c r="N14">
-        <v>2.212829</v>
+        <v>4.441007</v>
       </c>
       <c r="O14">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="P14">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="Q14">
-        <v>14.62147218124755</v>
+        <v>20.67067349628789</v>
       </c>
       <c r="R14">
-        <v>131.593249631228</v>
+        <v>186.036061466591</v>
       </c>
       <c r="S14">
-        <v>0.03245266195213879</v>
+        <v>0.05982911683665735</v>
       </c>
       <c r="T14">
-        <v>0.03245266195213879</v>
+        <v>0.05982911683665734</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H15">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I15">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J15">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.887478</v>
       </c>
       <c r="O15">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="P15">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="Q15">
-        <v>12.47168537185511</v>
+        <v>8.78526907735711</v>
       </c>
       <c r="R15">
-        <v>112.245168346696</v>
+        <v>79.067421696214</v>
       </c>
       <c r="S15">
-        <v>0.02768116536618917</v>
+        <v>0.02542804859092101</v>
       </c>
       <c r="T15">
-        <v>0.02768116536618917</v>
+        <v>0.02542804859092101</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H16">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I16">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J16">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.827342666666667</v>
+        <v>5.953764333333333</v>
       </c>
       <c r="N16">
-        <v>17.482028</v>
+        <v>17.861293</v>
       </c>
       <c r="O16">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="P16">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="Q16">
-        <v>115.5141161263662</v>
+        <v>83.13541406814544</v>
       </c>
       <c r="R16">
-        <v>1039.627045137296</v>
+        <v>748.2187266133089</v>
       </c>
       <c r="S16">
-        <v>0.256385985958167</v>
+        <v>0.2406268185910921</v>
       </c>
       <c r="T16">
-        <v>0.256385985958167</v>
+        <v>0.2406268185910921</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.82277733333333</v>
+        <v>13.96350433333333</v>
       </c>
       <c r="H17">
-        <v>59.468332</v>
+        <v>41.890513</v>
       </c>
       <c r="I17">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="J17">
-        <v>0.3199563508543806</v>
+        <v>0.3275779092170975</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.07810833333333334</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N17">
-        <v>0.234325</v>
+        <v>0.125737</v>
       </c>
       <c r="O17">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="P17">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="Q17">
-        <v>1.548324099544444</v>
+        <v>0.5852430481201111</v>
       </c>
       <c r="R17">
-        <v>13.9349168959</v>
+        <v>5.267187433080999</v>
       </c>
       <c r="S17">
-        <v>0.003436537577885558</v>
+        <v>0.00169392519842702</v>
       </c>
       <c r="T17">
-        <v>0.003436537577885558</v>
+        <v>0.00169392519842702</v>
       </c>
     </row>
   </sheetData>
